--- a/data/final_excel_sheet/final_sheet_2024-05-31.xlsx
+++ b/data/final_excel_sheet/final_sheet_2024-05-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="226">
   <si>
     <t>combination_reg_no</t>
   </si>
@@ -37,43 +37,661 @@
     <t>orderpdf_file_path</t>
   </si>
   <si>
+    <t>M&amp;A/03/2021/03/CD</t>
+  </si>
+  <si>
     <t>M&amp;A/01/2021/03/CD</t>
   </si>
   <si>
     <t>C-2022/11/981</t>
   </si>
   <si>
+    <t>M&amp;A – 2021/01/810</t>
+  </si>
+  <si>
+    <t>C-2022/12/995</t>
+  </si>
+  <si>
+    <t>M&amp;A/Q1/2018/18</t>
+  </si>
+  <si>
+    <t>C-2021/01/810</t>
+  </si>
+  <si>
+    <t>C-2020/05/746</t>
+  </si>
+  <si>
+    <t>C-2021/03/825</t>
+  </si>
+  <si>
+    <t>C-2021/03/824</t>
+  </si>
+  <si>
+    <t>C-2021/03/826</t>
+  </si>
+  <si>
+    <t>C-2021/05/837</t>
+  </si>
+  <si>
+    <t>C-2014/06/181</t>
+  </si>
+  <si>
+    <t>C-2019/09/688</t>
+  </si>
+  <si>
+    <t>C-2017/10/531</t>
+  </si>
+  <si>
+    <t>C-2018/01/544</t>
+  </si>
+  <si>
+    <t>C-2018/01/547</t>
+  </si>
+  <si>
+    <t>C-2016/04/387</t>
+  </si>
+  <si>
+    <t>C-2017/06/516</t>
+  </si>
+  <si>
+    <t>C-2017/05/510</t>
+  </si>
+  <si>
+    <t>C-2017/05/509</t>
+  </si>
+  <si>
+    <t>C-2015/02/246</t>
+  </si>
+  <si>
+    <t>C-2017/05/508</t>
+  </si>
+  <si>
+    <t>C-2017/02/485</t>
+  </si>
+  <si>
+    <t>C-2016/03/384</t>
+  </si>
+  <si>
+    <t>C-2015/09/312</t>
+  </si>
+  <si>
+    <t>C-2015/07/293</t>
+  </si>
+  <si>
+    <t>C-2015/05/276</t>
+  </si>
+  <si>
+    <t>C-2015/12/344</t>
+  </si>
+  <si>
+    <t>C-2016/02/377</t>
+  </si>
+  <si>
+    <t>C-2015/08/298</t>
+  </si>
+  <si>
+    <t>C-2015/12/349</t>
+  </si>
+  <si>
+    <t>C-2015/08/299</t>
+  </si>
+  <si>
+    <t>C-2015/09/313</t>
+  </si>
+  <si>
+    <t>C-2016/02/373</t>
+  </si>
+  <si>
+    <t>C-2015/12/347</t>
+  </si>
+  <si>
+    <t>C-2015/03/257</t>
+  </si>
+  <si>
+    <t>C-2015/07/289</t>
+  </si>
+  <si>
+    <t>C-2015/02/249</t>
+  </si>
+  <si>
+    <t>C-2015/07/297</t>
+  </si>
+  <si>
+    <t>C-2015/01/241</t>
+  </si>
+  <si>
+    <t>C-2015/06/283</t>
+  </si>
+  <si>
+    <t>C-2014/05/175</t>
+  </si>
+  <si>
+    <t>C-2014/03/162</t>
+  </si>
+  <si>
+    <t>C-2014/02/153</t>
+  </si>
+  <si>
+    <t>C-2013/05/122</t>
+  </si>
+  <si>
+    <t>C-2013/06/124</t>
+  </si>
+  <si>
+    <t>C-2013/02/109</t>
+  </si>
+  <si>
+    <t>C-2012/11/92</t>
+  </si>
+  <si>
+    <t>Bharti Airtel Limited and Lion Meadow Investment Limited</t>
+  </si>
+  <si>
     <t>NTPC Limited</t>
   </si>
   <si>
     <t>Cummins Inc.</t>
   </si>
   <si>
+    <t>Axis Bank Limited</t>
+  </si>
+  <si>
+    <t>Massachusetts Mutual Life Insurance Company</t>
+  </si>
+  <si>
+    <t>Bank of Baroda</t>
+  </si>
+  <si>
+    <t>Platinum Jasmine A 2018 Trust, acting through its trustee Platinum Owl C 2018 RSC Limited, and TPG Upswing Ltd</t>
+  </si>
+  <si>
+    <t>PI Opportunities Fund – I and Pioneer Investment Fund</t>
+  </si>
+  <si>
+    <t>Trian Partners AM Holdco, Ltd. and Trian Fund Management, L.P.</t>
+  </si>
+  <si>
+    <t>Global Infrastructure Partners India Private Limited</t>
+  </si>
+  <si>
+    <t>SABIC International Holdings B.V</t>
+  </si>
+  <si>
+    <t>SABIC International Holdings B.V.</t>
+  </si>
+  <si>
+    <t>Veolia Environnement S.A.</t>
+  </si>
+  <si>
+    <t>Allcargo Logistics Limited</t>
+  </si>
+  <si>
+    <t>The Tata Power Company Limited</t>
+  </si>
+  <si>
+    <t>Adani Green Energy Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Zuari Fertilisers and Chemicals Ltd., 2. Zuari Agro Chemicals Ltd </t>
+  </si>
+  <si>
+    <t>Amazon.com NV Investment Holdings LLC</t>
+  </si>
+  <si>
+    <t>InvestCorp India</t>
+  </si>
+  <si>
+    <t>Canada Pension Plan Investment Board</t>
+  </si>
+  <si>
+    <t>Bharti Airtel Ltd.</t>
+  </si>
+  <si>
+    <t>1. Chhatwal Group Trust, 2. Shrem Infraventure private Ltd., 3. Shrem Roadways Private Ltd.</t>
+  </si>
+  <si>
+    <t>Adani Transmission Ltd.</t>
+  </si>
+  <si>
+    <t>Telenor</t>
+  </si>
+  <si>
+    <t>1. LT Foods Ltd, 2. LT Foods Middle East DMCC</t>
+  </si>
+  <si>
+    <t>Reliance Jio Infocomm Ltd.</t>
+  </si>
+  <si>
+    <t>Intellect Design Arena Limited</t>
+  </si>
+  <si>
+    <t>Ultra Tech Cement Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Akira Marketing Private Ltd., 2. mama Catering Private Ltd., 3. Claridges Hospitality Private Ltd., 4. Azure Hospitality Private Ltd. </t>
+  </si>
+  <si>
+    <t>ITC Ltd.</t>
+  </si>
+  <si>
+    <t>Future Consumer Enterprise Ltd</t>
+  </si>
+  <si>
+    <t>Avago Technologies Ltd</t>
+  </si>
+  <si>
+    <t>EMC Limited</t>
+  </si>
+  <si>
+    <t>1.Cairnhill CIPEF Limited   2. Cairnhill CGPE Ltd.</t>
+  </si>
+  <si>
+    <t>1. Sarva Haryana Gramin Bank, 2. Punjab National Bank</t>
+  </si>
+  <si>
+    <t>1. Rajasthan Marudhara Gramin Bank, 2. State Bank of Bikaner and Jaipur</t>
+  </si>
+  <si>
+    <t>Reydel Automotive Holdings B.V.</t>
+  </si>
+  <si>
+    <t>Schulke &amp; Mayr GmbH</t>
+  </si>
+  <si>
+    <t>Hindustan Colas Private Ltd</t>
+  </si>
+  <si>
+    <t>1. Diasys Diagnostics Systems GmbH, Germany, 2. DiaSys Diagnostics India Private Ltd</t>
+  </si>
+  <si>
+    <t>Clariant Chemicals India Ltd</t>
+  </si>
+  <si>
+    <t>SRF Ltd</t>
+  </si>
+  <si>
+    <t>Sundaram Finance Ltd</t>
+  </si>
+  <si>
+    <t>Eli Lilly and Company</t>
+  </si>
+  <si>
+    <t>Piramal Enterprises Ltd</t>
+  </si>
+  <si>
+    <t>Baxalta Incorporated</t>
+  </si>
+  <si>
+    <t>General Electric Company, 2. GE Industrial France SAS, 3. GE Energy Europe B.V</t>
+  </si>
+  <si>
+    <t>1. Johnson and Johnson Innovation, Inc., 2. Ethicon Endo-surgery, Inc., 3. Google Inc.</t>
+  </si>
+  <si>
+    <t>1. SCM Soilfert Ltd., 2. Deepak Fertilizers and Petrochemicals Corporation Ltd.</t>
+  </si>
+  <si>
+    <t>Tesco Overseas Investments Ltd.</t>
+  </si>
+  <si>
+    <t>1. Thomas Cook (India) Ltd., 2. Thomas Cook Insurance Services (India) Ltd., 3. Sterling Holiday Resorts (India) Ltd.</t>
+  </si>
+  <si>
+    <t>Etihad Airways PJSC</t>
+  </si>
+  <si>
+    <t>1. Zulia Investments Pte. Ltd., 2. Kinder Investments Pte.Ltd., 3. Temasek Holdings (Private) Ltd</t>
+  </si>
+  <si>
+    <t>Titan International Inc.</t>
+  </si>
+  <si>
+    <t>1. Dewan Housing Finance Corporation Ltd, 2. First Blue Home Finance Ltd.</t>
+  </si>
+  <si>
     <t>43A</t>
   </si>
   <si>
+    <t>43A and 44</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>23/08/2023</t>
+  </si>
+  <si>
     <t>22/08/2023</t>
   </si>
   <si>
     <t>11/08/2023</t>
   </si>
   <si>
+    <t>09/08/2023</t>
+  </si>
+  <si>
+    <t>07/08/2023</t>
+  </si>
+  <si>
+    <t>20/06/2023</t>
+  </si>
+  <si>
+    <t>18/08/2023</t>
+  </si>
+  <si>
+    <t>30/09/2022</t>
+  </si>
+  <si>
+    <t>30/08/2022</t>
+  </si>
+  <si>
+    <t>19/07/2022</t>
+  </si>
+  <si>
+    <t>15/07/2022</t>
+  </si>
+  <si>
+    <t>17/05/2022</t>
+  </si>
+  <si>
+    <t>02/05/2022</t>
+  </si>
+  <si>
+    <t>17/03/2022</t>
+  </si>
+  <si>
+    <t>09/03/2022</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>17/12/2021</t>
+  </si>
+  <si>
+    <t>21/11/2019</t>
+  </si>
+  <si>
+    <t>27/08/2018</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>30/07/2018</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>11/05/2018</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>12/03/2018</t>
+  </si>
+  <si>
+    <t>24/01/2018</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>26/04/2017</t>
+  </si>
+  <si>
+    <t>13/04/2017</t>
+  </si>
+  <si>
+    <t>14/02/2017</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>13/01/2017</t>
+  </si>
+  <si>
+    <t>14/09/2016</t>
+  </si>
+  <si>
+    <t>31/08/2016</t>
+  </si>
+  <si>
+    <t>16/08/2016</t>
+  </si>
+  <si>
+    <t>14/07/2016</t>
+  </si>
+  <si>
+    <t>02/05/2016</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>16/02/2016</t>
+  </si>
+  <si>
+    <t>30/12/2015</t>
+  </si>
+  <si>
+    <t>27/05/2014</t>
+  </si>
+  <si>
+    <t>21/05/2014</t>
+  </si>
+  <si>
+    <t>19/12/2013</t>
+  </si>
+  <si>
+    <t>01/08/2013</t>
+  </si>
+  <si>
+    <t>02/04/2013</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1313/0/orders-section43a_44</t>
+  </si>
+  <si>
     <t>https://www.cci.gov.in/combination/order/details/order/1312/0/orders-section43a_44</t>
   </si>
   <si>
     <t>https://www.cci.gov.in/combination/order/details/order/1308/0/orders-section43a_44</t>
   </si>
   <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1307/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1306/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1293/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1234/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1215/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1216/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1202/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1194/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1193/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1147/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1146/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/340/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/344/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/234/1/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/347/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1099/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1138/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1140/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1137/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/439/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/435/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/432/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1121/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1089/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/441/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/443/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/448/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1136/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1101/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1102/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/451/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/454/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1118/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1123/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/994/1/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1105/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1113/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1117/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1109/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1114/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1135/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1112/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1115/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/480/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1104/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1131/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1103/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1108/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1100/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1106/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1098/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1097/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1133/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1094/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1095/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1093/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>https://www.cci.gov.in/combination/order/details/order/1091/0/orders-section43a_44</t>
+  </si>
+  <si>
+    <t>order1693216865.pdf</t>
+  </si>
+  <si>
     <t>order1692965196.pdf</t>
   </si>
   <si>
-    <t>order1692272330.pdf</t>
-  </si>
-  <si>
-    <t>cci_incremental\cci_43\2023\Aug\order1692965196.pdf</t>
-  </si>
-  <si>
-    <t>cci_incremental\cci_43\2023\Aug\order1692272330.pdf</t>
+    <t>2023\Aug\order1693216865.pdf</t>
+  </si>
+  <si>
+    <t>2023\Aug\order1692965196.pdf</t>
   </si>
 </sst>
 </file>
@@ -444,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,22 +1096,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -501,28 +1119,1042 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E31" r:id="rId30"/>
+    <hyperlink ref="E32" r:id="rId31"/>
+    <hyperlink ref="E33" r:id="rId32"/>
+    <hyperlink ref="E34" r:id="rId33"/>
+    <hyperlink ref="E35" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E38" r:id="rId37"/>
+    <hyperlink ref="E39" r:id="rId38"/>
+    <hyperlink ref="E40" r:id="rId39"/>
+    <hyperlink ref="E41" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId41"/>
+    <hyperlink ref="E43" r:id="rId42"/>
+    <hyperlink ref="E44" r:id="rId43"/>
+    <hyperlink ref="E45" r:id="rId44"/>
+    <hyperlink ref="E46" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
+    <hyperlink ref="E48" r:id="rId47"/>
+    <hyperlink ref="E49" r:id="rId48"/>
+    <hyperlink ref="E50" r:id="rId49"/>
+    <hyperlink ref="E51" r:id="rId50"/>
+    <hyperlink ref="E52" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
+    <hyperlink ref="E54" r:id="rId53"/>
+    <hyperlink ref="E55" r:id="rId54"/>
+    <hyperlink ref="E56" r:id="rId55"/>
+    <hyperlink ref="E57" r:id="rId56"/>
+    <hyperlink ref="E58" r:id="rId57"/>
+    <hyperlink ref="E59" r:id="rId58"/>
+    <hyperlink ref="E60" r:id="rId59"/>
+    <hyperlink ref="E61" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
